--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -405,15 +405,15 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">    {
+    <t xml:space="preserve"> {
         id: 1,
         criminal_case
         { 
             id: 1,
             number: "УПН1854",
             status: "открыто"/"раскрыто"/"не раскрыто",
-           detective
-           {
+            detective:
+            {
                 id: 2;
                 name: "Шерлок";
                 surname: "Холмс";
@@ -424,28 +424,28 @@
         date: "2018-02-26",
         time: "12:00:00",
         place: "БГУИР, каб. 213а",
-        participants[
-        {
-            man
-                        {
-                                id: 1,
-                                name: "Шерлок",
-                                surname: "Холмс",
-                                photo_path: "kuugvutcvyuyufhgvhb.jpg"
-                        },
+        participants:[
+        {
+            man:
+            {
+                id: 1,
+                name: "Шерлок",
+                surname: "Холмс",
+                photoPath: "kuugvutcvyuyufhgvhb.jpg"
+            },
             status: "свидетель"
-        }],
-        evidences_of_crime[
-        {
-            evidence
-                        {
-                                id: 1,
-                                name: "rdtyhkjl"
-                        }
+        }], 
+        evidencesOfCrime:[
+        {
+            evidence: 
+            {
+                id: 1,
+                name: "rdtyhkjl"
+            },
             type: "орудие убийства",
-            photo_path: "teyyuiowetdukfyilrytryjus6risa"
+            photoPath: "teyyuiowetdukfyilrytryjus6risa"
         }]
-        }</t>
+    }</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +498,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,6 +549,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,7 +839,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,31 +1041,32 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="264" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
         <v>59</v>
       </c>
     </row>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -132,10 +132,6 @@
 в преступлении</t>
   </si>
   <si>
-    <t>/participants/:man_id/:crime_id
-/crimes/:crime_id/:man_id</t>
-  </si>
-  <si>
     <t>конкретная улика
 в преступлении</t>
   </si>
@@ -447,6 +443,9 @@
         }]
     }</t>
   </si>
+  <si>
+    <t>/participants/:man_id/:crime_id</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +464,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,25 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,22 +525,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -891,148 +869,148 @@
       <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="184.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+    </row>
+    <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1041,89 +1019,90 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="264" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19" t="s">
-        <v>45</v>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>52</v>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -136,10 +136,6 @@
 в преступлении</t>
   </si>
   <si>
-    <t>/evidences/:evidence_id/:crime_id
-/crimes/:crime_id/:evidence_id</t>
-  </si>
-  <si>
     <t>улика</t>
   </si>
   <si>
@@ -445,6 +441,9 @@
   </si>
   <si>
     <t>/participants/:man_id/:crime_id</t>
+  </si>
+  <si>
+    <t>/evidences/:evidence_id/:crime_id</t>
   </si>
 </sst>
 </file>
@@ -816,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -879,10 +878,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
@@ -899,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
@@ -920,7 +919,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
@@ -935,7 +934,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
@@ -950,7 +949,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
@@ -965,7 +964,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
@@ -980,7 +979,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
@@ -995,7 +994,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
@@ -1010,7 +1009,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1030,7 +1029,7 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1044,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1056,53 +1055,54 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Фича дописать</t>
   </si>
@@ -323,25 +323,6 @@
                 date_added: "2017-02-25 12:25:25",
         photo_path: "teyyuiowetdukfyilrytryjusrisa",
         details: "Найден рядом с трупом, около левой руки"
-}</t>
-  </si>
-  <si>
-    <t>{
-        id: 1, 
-        name: "rdtyhkjl",
-        description: "Столовый нож розового цвета",
-        evidences_of_crime:[
-        {
-                crime_id: 1,
-                criminal_case:
-                {
-                        number: "УПН6516"
-                },
-                type: "орудие убийства",
-                date_added: "2018-02-25 12:25:36",
-                details: "Найден рядом с трупом",
-                photo_path: "bdgnytuyilgreryj6uik.png"
-        }]
 }</t>
   </si>
   <si>
@@ -445,6 +426,108 @@
   <si>
     <t>/evidences/:evidence_id/:crime_id</t>
   </si>
+  <si>
+    <t>{
+        id: 1, 
+        name: "rdtyhkjl",
+        description: "Столовый нож розового цвета",
+        evidences_of_crime:[
+        {
+                crime:
+                {
+                    id: 1,
+                    type: "убийство",
+                    criminal_case:
+                    {
+                            number: "УПН6516"
+                    }
+                },
+                type: "орудие убийства",
+                date_added: "2018-02-25 12:25:36",
+                details: "Найден рядом с трупом",
+                photo_path: "bdgnytuyilgreryj6uik.png"
+        }]
+}</t>
+  </si>
+  <si>
+    <t>добавление человека</t>
+  </si>
+  <si>
+    <t>/man/add</t>
+  </si>
+  <si>
+    <t>добавление детектива</t>
+  </si>
+  <si>
+    <t>{  
+    success: true/false
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    man:
+    {
+        id: 1
+    },
+    login: "hgyj",
+    password: "password (not hash)",
+    email: "somemail@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>добавление дела</t>
+  </si>
+  <si>
+    <t>/detectives/add</t>
+  </si>
+  <si>
+    <t>/criminal_cases/add</t>
+  </si>
+  <si>
+    <t>{ 
+    detective:
+    {
+        id: 1
+    },
+    number: "УПН2015",
+    createDate: "2015-02-25",
+    closed: true/false,
+    closeDate: "2015-02-28"
+}</t>
+  </si>
+  <si>
+    <t>добавление преступления</t>
+  </si>
+  <si>
+    <t>/crimes/add</t>
+  </si>
+  <si>
+    <t>{ 
+    name: "bartimeyse",
+    surname: "grryjyhkthd",
+    birthday: "2012-02-15",
+    home_address: "Minsk, Independence sq., 5" / null,
+    photo_path: "some_url.jpg" / null
+}</t>
+  </si>
+  <si>
+    <t>{  
+    success: true/false,
+    man: //only if success=true
+    {
+        id: 2
+    }
+}</t>
+  </si>
+  <si>
+    <t>{  
+    success: true/false,
+    criminalCase: //only if success=true
+    {
+        id: 2
+    }
+}</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +546,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -528,9 +605,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -813,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,8 +904,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="76.88671875" customWidth="1"/>
     <col min="7" max="7" width="48.109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
@@ -878,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>49</v>
@@ -898,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>48</v>
@@ -983,18 +1063,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
-        <v>56</v>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
@@ -1044,7 +1124,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1055,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
@@ -1070,42 +1150,187 @@
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="26" spans="2:6" ht="153.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
   </sheetData>
+  <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>Фича дописать</t>
   </si>
@@ -464,17 +464,6 @@
 }</t>
   </si>
   <si>
-    <t>{ 
-    man:
-    {
-        id: 1
-    },
-    login: "hgyj",
-    password: "password (not hash)",
-    email: "somemail@gmail.com"
-}</t>
-  </si>
-  <si>
     <t>добавление дела</t>
   </si>
   <si>
@@ -482,6 +471,12 @@
   </si>
   <si>
     <t>/criminal_cases/add</t>
+  </si>
+  <si>
+    <t>добавление преступления</t>
+  </si>
+  <si>
+    <t>/crimes/add</t>
   </si>
   <si>
     <t>{ 
@@ -492,48 +487,234 @@
     number: "УПН2015",
     createDate: "2015-02-25",
     closed: true/false,
-    closeDate: "2015-02-28"
-}</t>
-  </si>
-  <si>
-    <t>добавление преступления</t>
-  </si>
-  <si>
-    <t>/crimes/add</t>
+    closeDate: "2015-02-28" / null
+}</t>
   </si>
   <si>
     <t>{ 
     name: "bartimeyse",
     surname: "grryjyhkthd",
-    birthday: "2012-02-15",
+    birthday: "2012-02-15" / null,
     home_address: "Minsk, Independence sq., 5" / null,
     photo_path: "some_url.jpg" / null
 }</t>
   </si>
   <si>
-    <t>{  
-    success: true/false,
-    man: //only if success=true
+    <t>{
+    man:
+    {
+        id: 1
+    },
+    login: "hgyj",
+    password: "password (not hash)",
+    email: "somemail@gmail.com" / null
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">добавление улики (без привязки к преступлению) </t>
+  </si>
+  <si>
+    <t>{ 
+    criminalCase:
+    {
+        id: 1
+    },
+    type: "Убийство",
+    description: "Some decription",
+    date: "2015-02-28",
+    time: "15:15:15" / null,
+    place: "This is place"
+}</t>
+  </si>
+  <si>
+    <t>добавление улики преступления</t>
+  </si>
+  <si>
+    <t>/evidences/add_for_crime</t>
+  </si>
+  <si>
+    <t>{ 
+    id: 1,
+    name: "Some name",
+    description: "Some description" / null
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    evidence:
+    {
+        id: 1
+    },
+    crime:
     {
         id: 2
-    }
-}</t>
-  </si>
-  <si>
-    <t>{  
-    success: true/false,
-    criminalCase: //only if success=true
+    },
+    type: "Отпечаток",
+    dateAdded: "2015-02-28 15:15:15",
+    details: "Details",
+    photoPath: "url.png"
+}</t>
+  </si>
+  <si>
+    <t>добавление участника преступления</t>
+  </si>
+  <si>
+    <t>/participants/add</t>
+  </si>
+  <si>
+    <t>{ 
+    man:
+    {
+        id: 1
+    },
+    crime:
     {
         id: 2
-    }
-}</t>
+    },
+    status: "Подозреваемый",
+    dateAdded: "2015-02-28 15:15:15",
+    alibi: "Details",
+    witnessReport: "Long report"
+}</t>
+  </si>
+  <si>
+    <t>изменение человека</t>
+  </si>
+  <si>
+    <t>/man/update</t>
+  </si>
+  <si>
+    <t>изменение детектива</t>
+  </si>
+  <si>
+    <t>изменение дела</t>
+  </si>
+  <si>
+    <t>изменение преступления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">изменение улики (без привязки к преступлению) </t>
+  </si>
+  <si>
+    <t>изменение улики преступления</t>
+  </si>
+  <si>
+    <t>изменение участника преступления</t>
+  </si>
+  <si>
+    <t>/detectives/update</t>
+  </si>
+  <si>
+    <t>/criminal_cases/update</t>
+  </si>
+  <si>
+    <t>/crimes/update</t>
+  </si>
+  <si>
+    <t>/evidences/update_single</t>
+  </si>
+  <si>
+    <t>/evidences/add_single</t>
+  </si>
+  <si>
+    <t>/evidences/update_for_crime</t>
+  </si>
+  <si>
+    <t>/participants/update</t>
+  </si>
+  <si>
+    <t>{ 
+    id: 1,
+    name: "bartimeyse",
+    surname: "grryjyhkthd",
+    birthday: "2012-02-15" / null,
+    home_address: "Minsk, Independence sq., 5" / null,
+    photo_path: "some_url.jpg" / null
+}</t>
+  </si>
+  <si>
+    <t>{
+    id: 1,
+    login: "hgyj",
+    password: "password (not hash)",
+    email: "somemail@gmail.com" / null
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    id: 1,
+    detective:
+    {
+        id: 1
+    },
+    number: "УПН2015",
+    createDate: "2015-02-25",
+    closed: true/false,
+    closeDate: "2015-02-28" / null
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    id: 1,
+    criminalCase:
+    {
+        id: 1
+    },
+    type: "Убийство",
+    description: "Some decription",
+    date: "2015-02-28",
+    time: "15:15:15" / null,
+    place: "This is place"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    name: "Some name",
+    description: "Some description" / null
+}</t>
+  </si>
+  <si>
+    <t>список статусов для подозреваемых</t>
+  </si>
+  <si>
+    <t>/participants/status_list</t>
+  </si>
+  <si>
+    <t>[]
+{
+    name: "Подозреваемый"
+}</t>
+  </si>
+  <si>
+    <t>[]
+{
+    status: "Подозреваемый"
+}</t>
+  </si>
+  <si>
+    <t>список типов улик</t>
+  </si>
+  <si>
+    <t>/evidences/types_list</t>
+  </si>
+  <si>
+    <t>[]
+{
+    type: "Отпечаток"
+}</t>
+  </si>
+  <si>
+    <t>список типов преступлений</t>
+  </si>
+  <si>
+    <t>/crimes/types_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -541,6 +722,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -584,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -605,12 +793,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G40"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="153.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>60</v>
       </c>
@@ -1197,11 +1392,11 @@
       <c r="D26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>72</v>
+      <c r="E26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,121 +1407,267 @@
         <v>10</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="1"/>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -500,17 +500,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    man:
-    {
-        id: 1
-    },
-    login: "hgyj",
-    password: "password (not hash)",
-    email: "somemail@gmail.com" / null
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve">добавление улики (без привязки к преступлению) </t>
   </si>
   <si>
@@ -633,14 +622,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    id: 1,
-    login: "hgyj",
-    password: "password (not hash)",
-    email: "somemail@gmail.com" / null
-}</t>
-  </si>
-  <si>
     <t>{ 
     id: 1,
     detective:
@@ -708,6 +689,25 @@
   </si>
   <si>
     <t>/crimes/types_list</t>
+  </si>
+  <si>
+    <t>{
+    man:
+    {
+        id: 1
+    },
+    login: "hgyj",
+    password: "password (not hash)",
+    email: "somemail@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{
+    id: 1,
+    login: "hgyj",
+    password: "password (not hash)",
+    email: "somemail@gmail.com"
+}</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1091,7 @@
   <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>65</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>63</v>
@@ -1444,7 +1444,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>63</v>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="30" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>63</v>
@@ -1469,16 +1469,16 @@
     </row>
     <row r="31" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>63</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="32" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>63</v>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="34" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>63</v>
@@ -1527,16 +1527,16 @@
     </row>
     <row r="35" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>63</v>
@@ -1544,16 +1544,16 @@
     </row>
     <row r="36" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>63</v>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="37" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>63</v>
@@ -1578,16 +1578,16 @@
     </row>
     <row r="38" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>63</v>
@@ -1595,16 +1595,16 @@
     </row>
     <row r="39" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>63</v>
@@ -1612,16 +1612,16 @@
     </row>
     <row r="40" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>63</v>
@@ -1629,44 +1629,44 @@
     </row>
     <row r="42" spans="2:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Фича дописать</t>
   </si>
@@ -276,30 +276,6 @@
                 id: 222;
                 hash: "grthujyfdrwse6ri7t8yilfghfmdgn";
         }
-}</t>
-  </si>
-  <si>
-    <t>{ 
-        man
-        {
-                id: 1,
-                name: "Анна",
-                surname: "Булойчик"
-        },
-        crime
-        {
-                id: 1,
-                type: "Убийство",
-                                criminal_case:
-                                {
-                                        number: "УПН6516"
-                                }
-        },
-        photo_path: "teyyuiowetdukfyilrytryjusrisa",
-        status: "Свидетель",
-                date_added: "2017-02-25 12:12:47",
-        alibi: "Была в своём доме вместе с детьми (они подтверждают)",
-        witness_report: "В 12.25 в дом вошла кузина убитой. Вышла самое меньшее через 15 минут"
 }</t>
   </si>
   <si>
@@ -661,28 +637,10 @@
     <t>/participants/status_list</t>
   </si>
   <si>
-    <t>[]
-{
-    name: "Подозреваемый"
-}</t>
-  </si>
-  <si>
-    <t>[]
-{
-    status: "Подозреваемый"
-}</t>
-  </si>
-  <si>
     <t>список типов улик</t>
   </si>
   <si>
     <t>/evidences/types_list</t>
-  </si>
-  <si>
-    <t>[]
-{
-    type: "Отпечаток"
-}</t>
   </si>
   <si>
     <t>список типов преступлений</t>
@@ -707,6 +665,53 @@
     login: "hgyj",
     password: "password (not hash)",
     email: "somemail@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>[]
+{ 
+enumValue: "VICTUM",
+name: "Подозреваемый"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+        man
+        {
+                id: 1,
+                name: "Анна",
+                surname: "Булойчик"
+        },
+        crime
+        {
+                id: 1,
+                type: "Убийство",
+                                criminal_case:
+                                {
+                                        number: "УПН6516"
+                                }
+        },
+        photo_path: "teyyuiowetdukfyilrytryjusrisa",
+        status: "Свидетель",
+        date_added: "2017-02-25 12:12:47",
+        alibi: "Была в своём доме вместе с детьми (они подтверждают)",
+        witness_report: "В 12.25 в дом вошла кузина убитой. Вышла самое меньшее через 15 минут"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "man":
+    {
+        "id": 8
+    },
+    "crime":
+    {
+        "id": 3
+    },
+    "status": "SUSPECTED",
+    "dateAdded": "2015-02-28T15:15:15",
+    "alibi": "Details",
+    "witnessReport": "Long report"
 }</t>
   </si>
 </sst>
@@ -760,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -768,11 +773,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,19 +813,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1090,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>49</v>
@@ -1173,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>48</v>
@@ -1269,7 +1284,7 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
@@ -1319,7 +1334,7 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1330,11 +1345,11 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
@@ -1345,11 +1360,11 @@
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
@@ -1364,7 +1379,7 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
@@ -1379,294 +1394,298 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="E26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="12" t="s">
+    </row>
+    <row r="31" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="F32" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="D35" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:6" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="18" t="s">
+      <c r="D43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
+      <c r="C44" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -113,9 +113,6 @@
     <t>список всех участников</t>
   </si>
   <si>
-    <t>/participants</t>
-  </si>
-  <si>
     <t>конкретное дело</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>человек</t>
-  </si>
-  <si>
-    <t>/participants/:man_id</t>
   </si>
   <si>
     <t>[]
@@ -713,6 +707,12 @@
     "alibi": "Details",
     "witnessReport": "Long report"
 }</t>
+  </si>
+  <si>
+    <t>/man/:man_id</t>
+  </si>
+  <si>
+    <t>/man</t>
   </si>
 </sst>
 </file>
@@ -765,27 +765,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -794,33 +779,33 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,95 +1090,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="76.88671875" customWidth="1"/>
-    <col min="7" max="7" width="48.109375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1209,7 +1196,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
@@ -1224,7 +1211,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
@@ -1239,7 +1226,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
@@ -1254,7 +1241,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="171.6" x14ac:dyDescent="0.25">
@@ -1269,7 +1256,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
@@ -1284,236 +1271,236 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
+      <c r="D17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:6" ht="264" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="F31" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,167 +1512,166 @@
     </row>
     <row r="34" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:6" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="67.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>Фича дописать</t>
   </si>
@@ -366,25 +366,6 @@
     <t>/crimes/types_list</t>
   </si>
   <si>
-    <t>{
-    man:
-    {
-        id: 1
-    },
-    login: "hgyj",
-    password: "password (not hash)",
-    email: "somemail@gmail.com"
-}</t>
-  </si>
-  <si>
-    <t>{
-    id: 1,
-    login: "hgyj",
-    password: "password (not hash)",
-    email: "somemail@gmail.com"
-}</t>
-  </si>
-  <si>
     <t>[]
 { 
 enumValue: "VICTUM",
@@ -412,17 +393,6 @@
   </si>
   <si>
     <t>/man</t>
-  </si>
-  <si>
-    <t>{ 
-    "man":
-    {
-        "id": 8
-    },
-    "login": "person_wirh_login_test",
-    "password": "test",
-    "email": "some@gmail.com"
-}</t>
   </si>
   <si>
     <t>Возможны 3 варианта:
@@ -695,22 +665,6 @@
     <t>{
     "error": false,
     "result": {
-        "men": [
-   {
-    "id": 1,
-    "name": "NoName",
-    "surname": "NoSurname",
-    "photoPath": "bdgnytuyilgreryj6uik.png",
-    "crimesPartAmount": 5
-   }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>{
-    "error": false,
-    "result": {
         "id": 1,
         "name": "NoName",
         "surname": "NoSurname",
@@ -728,6 +682,74 @@
                     }
                 },
                 "status": "Пострадавший"
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "man":
+    {
+        "name": "NoName",
+        "surname": "NoSurname",
+        "photoPath": "bdj6uik.png",
+        "birthday": "2018-03-25",
+        "homeAddress": "some_addr"
+    },
+    "login": "person_wirh_login_test",
+    "password": "test",
+    "email": "some@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "man":
+    {
+     "id": 1,
+        "name": "NoName",
+        "surname": "NoSurname",
+        "photoPath": "bdj6uik.png",
+        "birthday": "2018-03-25",
+        "homeAddress": "some_addr"
+    },
+    "login": "person_wirh_login_test",
+    "password": "test",
+    "email": "some@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>список всех детективов</t>
+  </si>
+  <si>
+    <t>/detectives</t>
+  </si>
+  <si>
+    <t>{
+    "error": false,
+    "result": {
+        "men": [
+            {
+                "id": 1,
+                "name": "NoName",
+                "surname": "NoSurname",
+                "photoPath": "bdgnytuyilgreryj6uik.png",
+                "crimesPartAmount": 5
+            }
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "error": false,
+    "result": {
+        "men": [
+            {
+                "id": 1,
+                "name": "NoName",
+                "surname": "NoSurname",
+                "photoPath": "bdgnytuyilgreryj6uik.png",
             }
         ]
     }
@@ -758,24 +780,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -790,35 +800,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1099,610 +1094,608 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G45"/>
+  <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="87.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="87.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="2"/>
+    <col min="9" max="9" width="17" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="2" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="2" customFormat="1" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="2" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="2" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="2" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="2" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="29" spans="2:6" s="2" customFormat="1" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" s="2" customFormat="1" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="264" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="2" customFormat="1" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="2" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="2" customFormat="1" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="2" customFormat="1" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="2" customFormat="1" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:6" s="2" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="2" customFormat="1" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="2" customFormat="1" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="2" customFormat="1" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="2" customFormat="1" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="2" customFormat="1" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="2" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="2" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="184.8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="290.39999999999998" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -410,24 +410,6 @@
 {
     "error": true,
     "result": "Неправильный пароль!"
-}</t>
-  </si>
-  <si>
-    <t>Возможны 3 варианта:
-1) successful registration
-{
-    "error": false,
-    "result": "Вы успешно авторизованы в системе!"
-}
-2-3) errors (различаются сообщением)
-{
-    "error": true,
-    "result": "Не удалось добавить пользователя!"
-}
-OR
-{
-    "error": true,
-    "result": "Пользователь с таким именем уже существует!"
 }</t>
   </si>
   <si>
@@ -688,37 +670,6 @@
 }</t>
   </si>
   <si>
-    <t>{ 
-    "man":
-    {
-        "name": "NoName",
-        "surname": "NoSurname",
-        "photoPath": "bdj6uik.png",
-        "birthday": "2018-03-25",
-        "homeAddress": "some_addr"
-    },
-    "login": "person_wirh_login_test",
-    "password": "test",
-    "email": "some@gmail.com"
-}</t>
-  </si>
-  <si>
-    <t>{ 
-    "man":
-    {
-     "id": 1,
-        "name": "NoName",
-        "surname": "NoSurname",
-        "photoPath": "bdj6uik.png",
-        "birthday": "2018-03-25",
-        "homeAddress": "some_addr"
-    },
-    "login": "person_wirh_login_test",
-    "password": "test",
-    "email": "some@gmail.com"
-}</t>
-  </si>
-  <si>
     <t>список всех детективов</t>
   </si>
   <si>
@@ -753,6 +704,55 @@
             }
         ]
     }
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "man":
+    {
+        "name": "Testes",
+        "surname": "Person",
+        "birthday": "2015-02-25",
+        "photoPath": "htryj",
+        "homeAddress": "ehr"
+    },
+    "login": "password_test",
+    "password": "test",
+    "email": "some@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>{ 
+    "man":
+    {
+        "id": 1,
+        "name": "Testes",
+        "surname": "Person",
+        "birthday": "2015-02-25",
+        "photoPath": "htryj",
+        "homeAddress": "ehr"
+    },
+    "login": "password_test",
+    "password": "test",
+    "email": "some@gmail.com"
+}</t>
+  </si>
+  <si>
+    <t>Возможны 3 варианта:
+1) successful registration
+{
+    "error": false,
+    "result": "Вы успешно зарегистрированы в системе!"
+}
+2-3) errors (различаются сообщением)
+{
+    "error": true,
+    "result": "Не удалось добавить пользователя!"
+}
+OR
+{
+    "error": true,
+    "result": "Пользователь с таким именем уже существует!"
 }</t>
   </si>
 </sst>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
     <col min="10" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1148,8 +1148,7 @@
       <c r="D6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1166,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,32 +1177,32 @@
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="264" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="264" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,11 +1213,11 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1229,11 +1228,11 @@
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,11 +1243,11 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1259,11 +1258,11 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="250.8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1274,10 +1273,10 @@
         <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="2" customFormat="1" ht="277.2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="2" customFormat="1" ht="184.8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="184.8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1302,29 +1301,29 @@
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="2" customFormat="1" ht="171.6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="171.6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1335,10 +1334,10 @@
         <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" s="2" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1349,10 +1348,10 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="2" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
@@ -1363,10 +1362,10 @@
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="2" customFormat="1" ht="290.39999999999998" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="290.39999999999998" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1377,10 +1376,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1391,10 +1390,10 @@
         <v>34</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" s="2" customFormat="1" ht="316.8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1405,16 +1404,16 @@
         <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="29" spans="2:6" s="2" customFormat="1" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="2" customFormat="1" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="177.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1442,13 +1441,13 @@
         <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="2" customFormat="1" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="2" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="2" customFormat="1" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="2" customFormat="1" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>52</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="2" customFormat="1" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="190.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1533,8 +1532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:6" s="2" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>59</v>
       </c>
@@ -1551,7 +1549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="2" customFormat="1" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="184.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>61</v>
       </c>
@@ -1562,13 +1560,13 @@
         <v>67</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="2" customFormat="1" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="2" customFormat="1" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>63</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="2" customFormat="1" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
@@ -1619,7 +1617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="2" customFormat="1" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="2" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>66</v>
       </c>
@@ -1653,7 +1651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
@@ -1668,7 +1666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>80</v>
       </c>
@@ -1683,7 +1681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="2" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>82</v>
       </c>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>Фича дописать</t>
   </si>
@@ -417,14 +417,6 @@
   </si>
   <si>
     <t>/sign_out</t>
-  </si>
-  <si>
-    <t>{
-    "result": "24df0681-abc7-4abd-bf62-55706bff1b56"
-}</t>
-  </si>
-  <si>
-    <t>VOID</t>
   </si>
   <si>
     <t>см интерфейс "/criminal_cases". Поле "type" везде "раскрыто", "closeDate" везде заполнена</t>
@@ -754,6 +746,9 @@
     "error": true,
     "result": "Пользователь с таким именем уже существует!"
 }</t>
+  </si>
+  <si>
+    <t>delete</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1092,7 @@
   <dimension ref="A2:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,29 +1172,25 @@
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="264" x14ac:dyDescent="0.25">
@@ -1213,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1228,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1243,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1258,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -1273,7 +1264,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="277.2" x14ac:dyDescent="0.25">
@@ -1287,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="184.8" x14ac:dyDescent="0.25">
@@ -1301,21 +1292,21 @@
         <v>87</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="171.6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1334,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
@@ -1362,7 +1353,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="290.39999999999998" x14ac:dyDescent="0.25">
@@ -1376,7 +1367,7 @@
         <v>38</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
@@ -1390,7 +1381,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="316.8" x14ac:dyDescent="0.25">
@@ -1404,7 +1395,7 @@
         <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1441,7 +1432,7 @@
         <v>44</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>42</v>
@@ -1560,7 +1551,7 @@
         <v>67</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>42</v>

--- a/OtherFiles/deadpool.xlsx
+++ b/OtherFiles/deadpool.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
